--- a/doc/Dictionaries/D_schema_data_dictionary.xlsx
+++ b/doc/Dictionaries/D_schema_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\videogame-data-analysis\doc\Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21297BD9-D9DF-42B0-AD14-EE4685F74AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F8F40-61E2-4A90-AEB7-5259B1B06FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -20,29 +20,44 @@
     <sheet name="screenshots" sheetId="6" r:id="rId5"/>
     <sheet name="movies" sheetId="7" r:id="rId6"/>
     <sheet name="requirements" sheetId="20" r:id="rId7"/>
-    <sheet name="categories" sheetId="8" r:id="rId8"/>
-    <sheet name="game_category" sheetId="9" r:id="rId9"/>
+    <sheet name="tags" sheetId="12" r:id="rId8"/>
+    <sheet name="game_tag" sheetId="13" r:id="rId9"/>
     <sheet name="genres" sheetId="10" r:id="rId10"/>
     <sheet name="game_genre" sheetId="11" r:id="rId11"/>
-    <sheet name="tags" sheetId="12" r:id="rId12"/>
-    <sheet name="game_tag" sheetId="13" r:id="rId13"/>
-    <sheet name="languages" sheetId="14" r:id="rId14"/>
-    <sheet name="game_language" sheetId="15" r:id="rId15"/>
-    <sheet name="developers" sheetId="16" r:id="rId16"/>
-    <sheet name="game_developer" sheetId="17" r:id="rId17"/>
-    <sheet name="publishers" sheetId="18" r:id="rId18"/>
-    <sheet name="game_publisher" sheetId="19" r:id="rId19"/>
-    <sheet name="platforms" sheetId="22" r:id="rId20"/>
-    <sheet name="game_platform" sheetId="21" r:id="rId21"/>
-    <sheet name="packages" sheetId="23" r:id="rId22"/>
-    <sheet name="game_package" sheetId="24" r:id="rId23"/>
+    <sheet name="platforms" sheetId="22" r:id="rId12"/>
+    <sheet name="game_platform" sheetId="21" r:id="rId13"/>
+    <sheet name="categories" sheetId="8" r:id="rId14"/>
+    <sheet name="game_category" sheetId="9" r:id="rId15"/>
+    <sheet name="publishers" sheetId="18" r:id="rId16"/>
+    <sheet name="game_publisher" sheetId="19" r:id="rId17"/>
+    <sheet name="developers" sheetId="16" r:id="rId18"/>
+    <sheet name="game_developer" sheetId="17" r:id="rId19"/>
+    <sheet name="languages" sheetId="14" r:id="rId20"/>
+    <sheet name="game_audio_language" sheetId="15" r:id="rId21"/>
+    <sheet name="game_subtitles" sheetId="25" r:id="rId22"/>
+    <sheet name="packages" sheetId="23" r:id="rId23"/>
+    <sheet name="sub_package" sheetId="26" r:id="rId24"/>
+    <sheet name="game_package" sheetId="24" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="114">
   <si>
     <t>Oszlop</t>
   </si>
@@ -107,18 +122,9 @@
     <t>pénznem</t>
   </si>
   <si>
-    <t>discount_DLC_count</t>
-  </si>
-  <si>
     <t>about_the_game</t>
   </si>
   <si>
-    <t>max 5000 karakter</t>
-  </si>
-  <si>
-    <t>recommendations</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -137,9 +143,6 @@
     <t>^https?://.*</t>
   </si>
   <si>
-    <t>achievements</t>
-  </si>
-  <si>
     <t>user_score</t>
   </si>
   <si>
@@ -170,215 +173,250 @@
     <t>peak_ccu</t>
   </si>
   <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>% kedvezmény</t>
+  </si>
+  <si>
+    <t>pct_pos_total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>pct_pos_recent</t>
+  </si>
+  <si>
+    <t>num_reviews_total</t>
+  </si>
+  <si>
+    <t>num_reviews_recent</t>
+  </si>
+  <si>
+    <t>supportid</t>
+  </si>
+  <si>
+    <t>FK game.appid</t>
+  </si>
+  <si>
+    <t>support_url</t>
+  </si>
+  <si>
+    <t>max 255</t>
+  </si>
+  <si>
+    <t>support_email</t>
+  </si>
+  <si>
+    <t>^[\w\.-]+@[\w\.-]+\.\w+$</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>descid</t>
+  </si>
+  <si>
+    <t>detailed_description</t>
+  </si>
+  <si>
+    <t>short_description</t>
+  </si>
+  <si>
+    <t>mediaid</t>
+  </si>
+  <si>
+    <t>header_image</t>
+  </si>
+  <si>
+    <t>screenshotid</t>
+  </si>
+  <si>
+    <t>movieid</t>
+  </si>
+  <si>
+    <t>catid</t>
+  </si>
+  <si>
+    <t>genreid</t>
+  </si>
+  <si>
+    <t>genre_name</t>
+  </si>
+  <si>
+    <t>tagid</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>langid</t>
+  </si>
+  <si>
+    <t>max 100 karakter</t>
+  </si>
+  <si>
+    <t>devid</t>
+  </si>
+  <si>
+    <t>pubid</t>
+  </si>
+  <si>
+    <t>1997-06-30 – 2025-05-30</t>
+  </si>
+  <si>
+    <t>estimated_owners</t>
+  </si>
+  <si>
+    <t>0-20000</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>reqid</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>{Windows, Mac, Linux}</t>
+  </si>
+  <si>
+    <t>enumeráció</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>{minimum, recommended}</t>
+  </si>
+  <si>
+    <t>max 2000 karakter</t>
+  </si>
+  <si>
+    <t>platid</t>
+  </si>
+  <si>
+    <t>packid</t>
+  </si>
+  <si>
+    <t>email cím</t>
+  </si>
+  <si>
+    <t>max 5000</t>
+  </si>
+  <si>
+    <t>max 1000</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>screenshots_full</t>
+  </si>
+  <si>
+    <t>screenshots_thumb</t>
+  </si>
+  <si>
+    <t>movies_thumbnail</t>
+  </si>
+  <si>
+    <t>movies_max</t>
+  </si>
+  <si>
+    <t>movies_480</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>max 100</t>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9\s\-\+]+$</t>
+  </si>
+  <si>
+    <t>≥ 0</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>categoryid</t>
+  </si>
+  <si>
+    <t>max 200</t>
+  </si>
+  <si>
+    <t>publisherid</t>
+  </si>
+  <si>
+    <t>developerid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sub_text</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>DLC_count</t>
+  </si>
+  <si>
+    <t>num_recommendations</t>
+  </si>
+  <si>
+    <t>num_achievements</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>{0,1}</t>
   </si>
   <si>
-    <t>packages</t>
-  </si>
-  <si>
-    <t>JSON / lista</t>
-  </si>
-  <si>
-    <t>.+</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>% kedvezmény</t>
-  </si>
-  <si>
-    <t>pct_pos_total</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>pct_pos_recent</t>
-  </si>
-  <si>
-    <t>num_reviews_total</t>
-  </si>
-  <si>
-    <t>num_reviews_recent</t>
-  </si>
-  <si>
-    <t>supportid</t>
-  </si>
-  <si>
-    <t>FK game.appid</t>
-  </si>
-  <si>
-    <t>support_url</t>
-  </si>
-  <si>
-    <t>max 255</t>
-  </si>
-  <si>
-    <t>support_email</t>
-  </si>
-  <si>
-    <t>^[\w\.-]+@[\w\.-]+\.\w+$</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>descid</t>
-  </si>
-  <si>
-    <t>detailed_description</t>
-  </si>
-  <si>
-    <t>short_description</t>
-  </si>
-  <si>
-    <t>max 1000 karakter</t>
-  </si>
-  <si>
-    <t>mediaid</t>
-  </si>
-  <si>
-    <t>header_image</t>
-  </si>
-  <si>
-    <t>screenshotid</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>movieid</t>
-  </si>
-  <si>
-    <t>catid</t>
-  </si>
-  <si>
-    <t>FK categories.catid</t>
-  </si>
-  <si>
-    <t>genreid</t>
-  </si>
-  <si>
-    <t>genre_name</t>
-  </si>
-  <si>
-    <t>FK genres.genreid</t>
-  </si>
-  <si>
-    <t>tagid</t>
-  </si>
-  <si>
-    <t>tag_name</t>
-  </si>
-  <si>
-    <t>FK tags.tagid</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>langid</t>
-  </si>
-  <si>
-    <t>lang_name</t>
-  </si>
-  <si>
-    <t>max 100 karakter</t>
-  </si>
-  <si>
-    <t>FK languages.langid</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>devid</t>
-  </si>
-  <si>
-    <t>FK developers.devid</t>
-  </si>
-  <si>
-    <t>pubid</t>
-  </si>
-  <si>
-    <t>FK publishers.pubid</t>
-  </si>
-  <si>
-    <t>1997-06-30 – 2025-05-30</t>
-  </si>
-  <si>
-    <t>MM DD, YY</t>
-  </si>
-  <si>
-    <t>estimated_owners</t>
-  </si>
-  <si>
-    <t>0-20000</t>
-  </si>
-  <si>
-    <t>reviews</t>
-  </si>
-  <si>
-    <t>owners</t>
-  </si>
-  <si>
-    <t>tartomány</t>
-  </si>
-  <si>
-    <t>\d+-\d+</t>
-  </si>
-  <si>
-    <t>reqid</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>{Windows, Mac, Linux}</t>
-  </si>
-  <si>
-    <t>enumeráció</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>{minimum, recommended}</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>max 2000 karakter</t>
-  </si>
-  <si>
-    <t>platid</t>
-  </si>
-  <si>
-    <t>FK platforms.platid</t>
-  </si>
-  <si>
-    <t>packid</t>
-  </si>
-  <si>
-    <t>FK packages.packid</t>
+    <t>0 = nem, 1 = igen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -479,11 +517,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -491,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -793,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,21 +913,21 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +960,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -915,79 +971,79 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -998,7 +1054,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1009,7 +1065,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1020,7 +1076,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1031,7 +1087,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1039,10 +1095,13 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1051,12 +1110,12 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1065,12 +1124,12 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1079,12 +1138,12 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1092,119 +1151,91 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1248,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1275,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1258,13 +1289,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1311,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,18 +1344,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1330,589 +1364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D00CF2-4224-4D16-A58F-AF70F882B85F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,23 +1377,23 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1957,7 +1413,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +1424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696639D5-9DBD-4676-A27C-B52FF9F8060F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1980,17 +1439,17 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2002,18 +1461,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2021,16 +1480,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DB69F-8DFE-4220-94E8-939CD6177ACA}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2052,7 +1512,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2072,7 +1532,569 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1035D9-0625-486F-95C3-A8D177F00B8F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2081,11 +2103,153 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DB69F-8DFE-4220-94E8-939CD6177ACA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542219DF-16CA-4566-8D41-4DA516112E84}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028125BA-C055-4CBB-98BF-E572998F5FCE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,18 +2280,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2304,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2331,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2187,40 +2351,49 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2230,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2433,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2280,21 +2453,35 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2304,15 +2491,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2334,7 +2521,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2354,21 +2541,35 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2378,15 +2579,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2408,7 +2609,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2428,21 +2629,49 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2455,12 +2684,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2482,7 +2711,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2502,46 +2731,46 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2553,16 +2782,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2584,7 +2813,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2598,13 +2827,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2613,16 +2856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2650,18 +2893,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
